--- a/Presentation/collections.xlsx
+++ b/Presentation/collections.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>System.Collections</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>.NET 4+</t>
+  </si>
+  <si>
+    <t>System.CodeDom.Compiler</t>
+  </si>
+  <si>
+    <t>TempFileCollection</t>
+  </si>
+  <si>
+    <t>Специализированная коллекция для хранения списка временных файлов</t>
   </si>
 </sst>
 </file>
@@ -749,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1337,12 +1346,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Presentation/collections.xlsx
+++ b/Presentation/collections.xlsx
@@ -761,8 +761,8 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
